--- a/模型比较结果.xlsx
+++ b/模型比较结果.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Classification Report</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Confusion Matrix</t>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>F1-Score</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Support</t>
         </is>
       </c>
     </row>
@@ -472,27 +482,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       1.00      1.00      1.00         2
-           1       0.82      1.00      0.90         9
-           2       0.00      0.00      0.00         2
-    accuracy                           0.85        13
-   macro avg       0.61      0.67      0.63        13
-weighted avg       0.72      0.85      0.78        13
-</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[[2 0 0]
- [0 9 0]
- [0 2 0]]</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -506,27 +507,18 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.00      0.00      0.00         1
-           1       0.60      0.75      0.67         4
-           2       0.00      0.00      0.00         1
-    accuracy                           0.50         6
-   macro avg       0.20      0.25      0.22         6
-weighted avg       0.40      0.50      0.44         6
-</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[[0 1 0]
- [1 3 0]
- [0 1 0]]</t>
-        </is>
-      </c>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -542,25 +534,16 @@
       <c r="C4" t="n">
         <v>0.6923076923076923</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.00      0.00      0.00         2
-           1       0.69      1.00      0.82         9
-           2       0.00      0.00      0.00         2
-    accuracy                           0.69        13
-   macro avg       0.23      0.33      0.27        13
-weighted avg       0.48      0.69      0.57        13
-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[[0 2 0]
- [0 9 0]
- [0 2 0]]</t>
-        </is>
-      </c>
+      <c r="D4" t="n">
+        <v>0.4792899408284024</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5664335664335665</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -576,25 +559,16 @@
       <c r="C5" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.00      0.00      0.00         1
-           1       0.67      1.00      0.80         4
-           2       0.00      0.00      0.00         1
-    accuracy                           0.67         6
-   macro avg       0.22      0.33      0.27         6
-weighted avg       0.44      0.67      0.53         6
-</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[[0 1 0]
- [0 4 0]
- [0 1 0]]</t>
-        </is>
-      </c>
+      <c r="D5" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -610,25 +584,16 @@
       <c r="C6" t="n">
         <v>0.6923076923076923</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.00      0.00      0.00         2
-           1       0.69      1.00      0.82         9
-           2       0.00      0.00      0.00         2
-    accuracy                           0.69        13
-   macro avg       0.23      0.33      0.27        13
-weighted avg       0.48      0.69      0.57        13
-</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[[0 2 0]
- [0 9 0]
- [0 2 0]]</t>
-        </is>
-      </c>
+      <c r="D6" t="n">
+        <v>0.4792899408284024</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5664335664335665</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -644,25 +609,16 @@
       <c r="C7" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.00      0.00      0.00         1
-           1       0.67      1.00      0.80         4
-           2       0.00      0.00      0.00         1
-    accuracy                           0.67         6
-   macro avg       0.22      0.33      0.27         6
-weighted avg       0.44      0.67      0.53         6
-</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[[0 1 0]
- [0 4 0]
- [0 1 0]]</t>
-        </is>
-      </c>
+      <c r="D7" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -676,27 +632,18 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       1.00      1.00      1.00         2
-           1       1.00      1.00      1.00         9
-           2       1.00      1.00      1.00         2
-    accuracy                           1.00        13
-   macro avg       1.00      1.00      1.00        13
-weighted avg       1.00      1.00      1.00        13
-</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[[2 0 0]
- [0 9 0]
- [0 0 2]]</t>
-        </is>
-      </c>
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9307692307692308</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9122807017543859</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -710,27 +657,18 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.00      0.00      0.00         1
-           1       0.50      0.50      0.50         4
-           2       0.00      0.00      0.00         1
-    accuracy                           0.33         6
-   macro avg       0.17      0.17      0.17         6
-weighted avg       0.33      0.33      0.33         6
-</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[[0 1 0]
- [1 2 1]
- [0 1 0]]</t>
-        </is>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/模型比较结果.xlsx
+++ b/模型比较结果.xlsx
@@ -507,16 +507,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -532,16 +532,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4792899408284024</v>
+        <v>0.7948717948717949</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5664335664335665</v>
+        <v>0.8018648018648018</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -582,16 +582,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4792899408284024</v>
+        <v>0.7948717948717949</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5664335664335665</v>
+        <v>0.8018648018648018</v>
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9307692307692308</v>
+        <v>0.591715976331361</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.6688963210702341</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
